--- a/write/tables/tb_model_time2icu.xlsx
+++ b/write/tables/tb_model_time2icu.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="17460" activeTab="2"/>
-    <workbookView xWindow="12000" yWindow="460" windowWidth="16800" windowHeight="17460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="13" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="raw.cr.icu" sheetId="10" r:id="rId5"/>
     <sheet name="results.cr.icu" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -634,7 +633,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
@@ -677,17 +676,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -707,23 +705,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
@@ -737,6 +755,7 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -750,6 +769,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
@@ -1033,7 +1053,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1043,12 +1062,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I28"/>
+  <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1124,594 +1142,600 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="str">
+        <f>results.cr.icu!A8</f>
+        <v>sepsis_dx2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>results.cr.icu!B3</f>
+        <v>0.91</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>results.cr.icu!C3</f>
+        <v>(0.82--1.02)</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>results.cr.icu!D3</f>
+        <v>0.099</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>results.cr.icu!E8</f>
+        <v>**</v>
+      </c>
+      <c r="H8" s="1">
+        <f>results.cr.icu!F8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>results.cr.icu!G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="str">
+        <f>results.cr.icu!A9</f>
+        <v>sepsis_dx3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>results.cr.icu!B4</f>
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>results.cr.icu!C4</f>
+        <v>(0.86--1.00)</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>results.cr.icu!D4</f>
+        <v>0.044</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>results.cr.icu!E9</f>
+        <v>***</v>
+      </c>
+      <c r="H9" s="1">
+        <f>results.cr.icu!F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>results.cr.icu!G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="str">
+        <f>results.cr.icu!A10</f>
+        <v>sepsis_dx4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>results.cr.icu!B5</f>
+        <v>0.68</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>results.cr.icu!C5</f>
+        <v>(0.62--0.74)</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>results.cr.icu!D5</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>results.cr.icu!E10</f>
+        <v>***</v>
+      </c>
+      <c r="H10" s="1">
+        <f>results.cr.icu!F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>results.cr.icu!G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="str">
+        <f>results.cr.icu!A11</f>
+        <v>osupp2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>results.cr.icu!B6</f>
+        <v>1.04</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f>results.cr.icu!C6</f>
+        <v>(0.98--1.10)</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>results.cr.icu!D6</f>
+        <v>0.190</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>results.cr.icu!E11</f>
+        <v/>
+      </c>
+      <c r="H11" s="1">
+        <f>results.cr.icu!F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>results.cr.icu!G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="str">
+        <f>results.cr.icu!A12</f>
+        <v>icnarc_score</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>results.cr.icu!B7</f>
+        <v>1.18</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f>results.cr.icu!C7</f>
+        <v>(1.08--1.29)</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f>results.cr.icu!D7</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>results.cr.icu!E12</f>
+        <v>***</v>
+      </c>
+      <c r="H14" s="1">
+        <f>results.cr.icu!F12</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>results.cr.icu!G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="str">
+        <f>results.cr.icu!A13</f>
+        <v>periarrest</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>results.cr.icu!B8</f>
+        <v>1.19</v>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f>results.cr.icu!C8</f>
+        <v>(1.06--1.34)</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f>results.cr.icu!D8</f>
+        <v>0.004</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>results.cr.icu!E13</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>results.cr.icu!F13</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>results.cr.icu!G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="str">
+        <f>results.cr.icu!A14</f>
+        <v>out_of_hours</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>results.cr.icu!B9</f>
+        <v>1.23</v>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f>results.cr.icu!C9</f>
+        <v>(1.12--1.35)</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f>results.cr.icu!D9</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>results.cr.icu!E14</f>
+        <v>***</v>
+      </c>
+      <c r="H16" s="1">
+        <f>results.cr.icu!F14</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>results.cr.icu!G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="str">
+        <f>results.cr.icu!A15</f>
+        <v>weekend</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>results.cr.icu!B10</f>
+        <v>1.24</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f>results.cr.icu!C10</f>
+        <v>(1.15--1.34)</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f>results.cr.icu!D10</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>results.cr.icu!E15</f>
+        <v/>
+      </c>
+      <c r="H17" s="1">
+        <f>results.cr.icu!F15</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>results.cr.icu!G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="str">
+        <f>results.cr.icu!A16</f>
+        <v>winter</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>results.cr.icu!B11</f>
+        <v>1.05</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f>results.cr.icu!C11</f>
+        <v>(0.94--1.17)</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f>results.cr.icu!D11</f>
+        <v>0.390</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>results.cr.icu!E16</f>
+        <v/>
+      </c>
+      <c r="H18" s="1">
+        <f>results.cr.icu!F16</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>results.cr.icu!G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="str">
+        <f>results.cr.icu!A17</f>
+        <v>room_cmp2[-5, 1)</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f>results.cr.icu!B12</f>
+        <v>1.02</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>results.cr.icu!C12</f>
+        <v>(1.01--1.02)</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>results.cr.icu!D12</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>results.cr.icu!E17</f>
+        <v>***</v>
+      </c>
+      <c r="H19" s="1">
+        <f>results.cr.icu!F17</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>results.cr.icu!G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18" t="str">
+        <f>results.cr.icu!A18</f>
+        <v>room_cmp2[ 1, 3)</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="25" t="str">
+        <f>results.cr.icu!B13</f>
+        <v>1.09</v>
+      </c>
+      <c r="E20" s="25" t="str">
+        <f>results.cr.icu!C13</f>
+        <v>(0.97--1.22)</v>
+      </c>
+      <c r="F20" s="25" t="str">
+        <f>results.cr.icu!D13</f>
+        <v>0.140</v>
+      </c>
+      <c r="G20" s="18" t="str">
+        <f>results.cr.icu!E18</f>
+        <v>***</v>
+      </c>
+      <c r="H20" s="18">
+        <f>results.cr.icu!F18</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <f>results.cr.icu!G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="str">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="str">
         <f>results.cr.icu!A3</f>
         <v>age_k0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f>results.cr.icu!B14</f>
         <v>1.26</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E23" s="2" t="str">
         <f>results.cr.icu!C14</f>
         <v>(1.19--1.34)</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F23" s="2" t="str">
         <f>results.cr.icu!D14</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G23" s="1" t="str">
         <f>results.cr.icu!E3</f>
         <v/>
       </c>
-      <c r="H7" s="1">
+      <c r="H23" s="1">
         <f>results.cr.icu!F3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I23" s="1">
         <f>results.cr.icu!G3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="str">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="str">
         <f>results.cr.icu!A4</f>
         <v>age_k2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D24" s="9" t="str">
         <f>results.cr.icu!B15</f>
         <v>0.98</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E24" s="9" t="str">
         <f>results.cr.icu!C15</f>
         <v>(0.92--1.05)</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F24" s="9" t="str">
         <f>results.cr.icu!D15</f>
         <v>0.580</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G24" s="1" t="str">
         <f>results.cr.icu!E4</f>
         <v>*</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H24" s="1">
         <f>results.cr.icu!F4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I24" s="1">
         <f>results.cr.icu!G4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="str">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="str">
         <f>results.cr.icu!A5</f>
         <v>age_k3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D25" s="2" t="str">
         <f>results.cr.icu!B16</f>
         <v>0.94</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E25" s="2" t="str">
         <f>results.cr.icu!C16</f>
         <v>(0.88--1.00)</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F25" s="2" t="str">
         <f>results.cr.icu!D16</f>
         <v>0.069</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f>results.cr.icu!E5</f>
         <v>***</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H25" s="1">
         <f>results.cr.icu!F5</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I25" s="1">
         <f>results.cr.icu!G5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="9" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="12" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="str">
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="str">
         <f>results.cr.icu!A6</f>
         <v>male</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D28" s="9" t="str">
         <f>results.cr.icu!B18</f>
         <v>0.77</v>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E28" s="9" t="str">
         <f>results.cr.icu!C18</f>
         <v>(0.71--0.83)</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F28" s="9" t="str">
         <f>results.cr.icu!D18</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f>results.cr.icu!E6</f>
         <v/>
       </c>
-      <c r="H12" s="1">
+      <c r="H28" s="1">
         <f>results.cr.icu!F6</f>
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I28" s="1">
         <f>results.cr.icu!G6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="str">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="str">
         <f>results.cr.icu!A7</f>
         <v>sepsis_dx1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C29" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D29" s="20" t="str">
         <f>results.cr.icu!B17</f>
         <v>0.60</v>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E29" s="20" t="str">
         <f>results.cr.icu!C17</f>
         <v>(0.53--0.68)</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F29" s="20" t="str">
         <f>results.cr.icu!D17</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f>results.cr.icu!E7</f>
         <v>***</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H29" s="1">
         <f>results.cr.icu!F7</f>
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I29" s="1">
         <f>results.cr.icu!G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C14" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="str">
-        <f>results.cr.icu!A8</f>
-        <v>sepsis_dx2</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>results.cr.icu!B3</f>
-        <v>0.91</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>results.cr.icu!C3</f>
-        <v>(0.82--1.02)</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f>results.cr.icu!D3</f>
-        <v>0.099</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>results.cr.icu!E8</f>
-        <v>**</v>
-      </c>
-      <c r="H16" s="1">
-        <f>results.cr.icu!F8</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>results.cr.icu!G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="str">
-        <f>results.cr.icu!A9</f>
-        <v>sepsis_dx3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>results.cr.icu!B4</f>
-        <v>0.93</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>results.cr.icu!C4</f>
-        <v>(0.86--1.00)</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f>results.cr.icu!D4</f>
-        <v>0.044</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>results.cr.icu!E9</f>
-        <v>***</v>
-      </c>
-      <c r="H17" s="1">
-        <f>results.cr.icu!F9</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>results.cr.icu!G9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="str">
-        <f>results.cr.icu!A10</f>
-        <v>sepsis_dx4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>results.cr.icu!B5</f>
-        <v>0.68</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>results.cr.icu!C5</f>
-        <v>(0.62--0.74)</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f>results.cr.icu!D5</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>results.cr.icu!E10</f>
-        <v>***</v>
-      </c>
-      <c r="H18" s="1">
-        <f>results.cr.icu!F10</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f>results.cr.icu!G10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="str">
-        <f>results.cr.icu!A11</f>
-        <v>osupp2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>results.cr.icu!B6</f>
-        <v>1.04</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>results.cr.icu!C6</f>
-        <v>(0.98--1.10)</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f>results.cr.icu!D6</f>
-        <v>0.190</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>results.cr.icu!E11</f>
-        <v/>
-      </c>
-      <c r="H19" s="1">
-        <f>results.cr.icu!F11</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <f>results.cr.icu!G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C21" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="str">
-        <f>results.cr.icu!A12</f>
-        <v>icnarc_score</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="10" t="str">
-        <f>results.cr.icu!B7</f>
-        <v>1.18</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f>results.cr.icu!C7</f>
-        <v>(1.08--1.29)</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f>results.cr.icu!D7</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>results.cr.icu!E12</f>
-        <v>***</v>
-      </c>
-      <c r="H22" s="1">
-        <f>results.cr.icu!F12</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <f>results.cr.icu!G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="str">
-        <f>results.cr.icu!A13</f>
-        <v>periarrest</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="10" t="str">
-        <f>results.cr.icu!B8</f>
-        <v>1.19</v>
-      </c>
-      <c r="E23" s="10" t="str">
-        <f>results.cr.icu!C8</f>
-        <v>(1.06--1.34)</v>
-      </c>
-      <c r="F23" s="10" t="str">
-        <f>results.cr.icu!D8</f>
-        <v>0.004</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>results.cr.icu!E13</f>
-        <v/>
-      </c>
-      <c r="H23" s="1">
-        <f>results.cr.icu!F13</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <f>results.cr.icu!G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="str">
-        <f>results.cr.icu!A14</f>
-        <v>out_of_hours</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="10" t="str">
-        <f>results.cr.icu!B9</f>
-        <v>1.23</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f>results.cr.icu!C9</f>
-        <v>(1.12--1.35)</v>
-      </c>
-      <c r="F24" s="10" t="str">
-        <f>results.cr.icu!D9</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f>results.cr.icu!E14</f>
-        <v>***</v>
-      </c>
-      <c r="H24" s="1">
-        <f>results.cr.icu!F14</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f>results.cr.icu!G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="str">
-        <f>results.cr.icu!A15</f>
-        <v>weekend</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="10" t="str">
-        <f>results.cr.icu!B10</f>
-        <v>1.24</v>
-      </c>
-      <c r="E25" s="10" t="str">
-        <f>results.cr.icu!C10</f>
-        <v>(1.15--1.34)</v>
-      </c>
-      <c r="F25" s="10" t="str">
-        <f>results.cr.icu!D10</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>results.cr.icu!E15</f>
-        <v/>
-      </c>
-      <c r="H25" s="1">
-        <f>results.cr.icu!F15</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <f>results.cr.icu!G15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="str">
-        <f>results.cr.icu!A16</f>
-        <v>winter</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="16" t="str">
-        <f>results.cr.icu!B11</f>
-        <v>1.05</v>
-      </c>
-      <c r="E26" s="16" t="str">
-        <f>results.cr.icu!C11</f>
-        <v>(0.94--1.17)</v>
-      </c>
-      <c r="F26" s="16" t="str">
-        <f>results.cr.icu!D11</f>
-        <v>0.390</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>results.cr.icu!E16</f>
-        <v/>
-      </c>
-      <c r="H26" s="1">
-        <f>results.cr.icu!F16</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <f>results.cr.icu!G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="str">
-        <f>results.cr.icu!A17</f>
-        <v>room_cmp2[-5, 1)</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="16" t="str">
-        <f>results.cr.icu!B12</f>
-        <v>1.02</v>
-      </c>
-      <c r="E27" s="16" t="str">
-        <f>results.cr.icu!C12</f>
-        <v>(1.01--1.02)</v>
-      </c>
-      <c r="F27" s="16" t="str">
-        <f>results.cr.icu!D12</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>results.cr.icu!E17</f>
-        <v>***</v>
-      </c>
-      <c r="H27" s="1">
-        <f>results.cr.icu!F17</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <f>results.cr.icu!G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="str">
-        <f>results.cr.icu!A18</f>
-        <v>room_cmp2[ 1, 3)</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="18" t="str">
-        <f>results.cr.icu!B13</f>
-        <v>1.09</v>
-      </c>
-      <c r="E28" s="18" t="str">
-        <f>results.cr.icu!C13</f>
-        <v>(0.97--1.22)</v>
-      </c>
-      <c r="F28" s="18" t="str">
-        <f>results.cr.icu!D13</f>
-        <v>0.140</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f>results.cr.icu!E18</f>
-        <v>***</v>
-      </c>
-      <c r="H28" s="1">
-        <f>results.cr.icu!F18</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <f>results.cr.icu!G18</f>
         <v>0</v>
       </c>
     </row>
@@ -1728,8 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1751,7 +1774,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1797,7 +1819,6 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2119,7 +2140,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
